--- a/cadastro_turmas.xlsx
+++ b/cadastro_turmas.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -432,31 +431,6 @@
           <t>Turma</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Segunda</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Terça</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Quarta</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quinta</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +460,26 @@
       </c>
       <c r="B4" t="n">
         <v>1203948</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1BADM</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10293845</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3AADM</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1029485</v>
       </c>
     </row>
   </sheetData>

--- a/cadastro_turmas.xlsx
+++ b/cadastro_turmas.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -482,6 +482,16 @@
         <v>1029485</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2BDS</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1203945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cadastro_turmas.xlsx
+++ b/cadastro_turmas.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -492,6 +492,16 @@
         <v>1203945</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2AADM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1093985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cadastro_turmas.xlsx
+++ b/cadastro_turmas.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -502,6 +502,16 @@
         <v>1093985</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3BDS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1029384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cadastro_turmas.xlsx
+++ b/cadastro_turmas.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -428,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Turma</t>
+          <t>Matrícula</t>
         </is>
       </c>
     </row>
@@ -439,17 +440,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123456</v>
+        <v>12456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2ADS</t>
+          <t>2BDS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1029348</v>
+        <v>102934</v>
       </c>
     </row>
     <row r="4">
@@ -459,57 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1203948</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1BADM</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10293845</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3AADM</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1029485</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2BDS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1203945</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2AADM</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1093985</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3BDS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1029384</v>
+        <v>102934</v>
       </c>
     </row>
   </sheetData>

--- a/cadastro_turmas.xlsx
+++ b/cadastro_turmas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,27 +440,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12456</v>
+        <v>1029483</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2BDS</t>
+          <t>1BDS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102934</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3ADS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>102934</v>
+        <v>102954</v>
       </c>
     </row>
   </sheetData>

--- a/cadastro_turmas.xlsx
+++ b/cadastro_turmas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1ADS</t>
+          <t>1BDS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1029483</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1BDS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
         <v>102954</v>
       </c>
     </row>

--- a/cadastro_turmas.xlsx
+++ b/cadastro_turmas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2BADM</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3ADS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>1BDS</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>102954</v>
+      <c r="B4" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/cadastro_turmas.xlsx
+++ b/cadastro_turmas.xlsx
@@ -436,31 +436,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2BADM</t>
+          <t>3ADS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3ADS</t>
+          <t>1BDS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1BDS</t>
+          <t>2AADM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
